--- a/Archive/16_List.xlsx
+++ b/Archive/16_List.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,1006 +356,646 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>I029546</t>
+          <t>I308321</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Zhang Meng</t>
+          <t>Brandy Meng</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I308321</t>
+          <t>I047794</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brandy Meng</t>
+          <t>Zhang Wayne</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>I010809</t>
+          <t>I015290</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luo Wei</t>
+          <t>Kevin Zhang</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I053941</t>
+          <t>I065754</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extra Li</t>
+          <t>Ivan Sheng</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I047794</t>
+          <t>I068662</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zhang Wayne</t>
+          <t>Mandy Yang</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I015290</t>
+          <t>I308164</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kevin Zhang</t>
+          <t>Roy Shao</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I065754</t>
+          <t>I329682</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ivan Sheng</t>
+          <t>Jerry Liu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I068662</t>
+          <t>I338782</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mandy Yang</t>
+          <t>William Ye</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I068667</t>
+          <t>I518769</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ruby Liang</t>
+          <t>Allen Xiong</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I072970</t>
+          <t>I312215</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brooklyn Huang</t>
+          <t>Peyton Zhong</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I075008</t>
+          <t>I320097</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wang Shoucheng</t>
+          <t>Qiao Hong</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I075039</t>
+          <t>I520239</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Li Xiongjun</t>
+          <t>Bert Huang</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I075064</t>
+          <t>I339275</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Abby Cui</t>
+          <t>Chrissy Chen</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I300974</t>
+          <t>I342549</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Helene Chen</t>
+          <t>Chen Xun</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I306429</t>
+          <t>I515108</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Telford Zhao</t>
+          <t>Chen Tianyu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I308164</t>
+          <t>I305763</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Roy Shao</t>
+          <t>Cheng Wen</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>I309938</t>
+          <t>I052202</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Alex Li</t>
+          <t>Dai Xiaolu</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I322858</t>
+          <t>I376397</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Li Linju</t>
+          <t>Dai Xi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I323866</t>
+          <t>I027910</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chen Qi</t>
+          <t>Ju Weihua</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>I324508</t>
+          <t>I075969</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Felix Huang</t>
+          <t>Li Bin</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I329682</t>
+          <t>I068096</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jerry Liu</t>
+          <t>Li Xin</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I338782</t>
+          <t>I347894</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>William Ye</t>
+          <t>Li Wei</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I339354</t>
+          <t>i516042</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Andy Feng</t>
+          <t>Li Ziqin</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I518769</t>
+          <t>I308823</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Allen Xiong</t>
+          <t>Lin Hai</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I519110</t>
+          <t>I521083</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shichun Yao</t>
+          <t>Liu Qingdong</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I312215</t>
+          <t>I058741</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Peyton Zhong</t>
+          <t>Pan Junlin</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I320097</t>
+          <t>I303381</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Qiao Hong</t>
+          <t>Qin Xiaoyun</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I520239</t>
+          <t>I323664</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bert Huang</t>
+          <t>Shen Dan</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I520157</t>
+          <t>I308587</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Vikki Xu</t>
+          <t>Song Sanli</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I339275</t>
+          <t>I371247</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chrissy Chen</t>
+          <t>Xiang Dan</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I030187</t>
+          <t>I518885</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Steven Lu</t>
+          <t>Yao Jing</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I342549</t>
+          <t>I515143</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chen Xun</t>
+          <t>Yu Yongxin</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>I515108</t>
+          <t>I343476</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chen Tianyu</t>
+          <t>Zhan Jiyuan</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I305763</t>
+          <t>I306729</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cheng Wen</t>
+          <t>Zhu Anqi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I052202</t>
+          <t xml:space="preserve">I523215 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dai Xiaolu</t>
+          <t>Zhu Lingkang</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I376397</t>
+          <t>I056391</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dai Xi</t>
+          <t>Liang Zhenyu</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I311688</t>
+          <t>I068435</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gong Yu</t>
+          <t>Frank Li</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I072344</t>
+          <t>I031684</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gu Jun</t>
+          <t>Sun Xufei</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I313925</t>
+          <t>I067490</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Guan Hanquan</t>
+          <t>Zhang Jingong</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I027910</t>
+          <t>I521633</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ju Weihua</t>
+          <t>Xu Owen</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I075969</t>
+          <t xml:space="preserve">I523215 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Li Bin</t>
+          <t>Zhu Samuel</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>I068096</t>
+          <t>I347939</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Li Xin</t>
+          <t>Wang Rookie</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>I347894</t>
+          <t>I076056</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Li Wei</t>
+          <t>Fan Diane</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>i516042</t>
+          <t>I343851</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Li Ziqin</t>
+          <t>Qian Lipeng</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>I308823</t>
+          <t>I323182</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lin Hai</t>
+          <t>Huang Kiros</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I521083</t>
+          <t>I064580</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Liu Qingdong</t>
+          <t xml:space="preserve">Ding Hongzhuang </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>I058741</t>
+          <t>I041481</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pan Junlin</t>
+          <t>Rambo Chen</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>I303381</t>
+          <t>I346894</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Qin Xiaoyun</t>
+          <t>Jerry Tan</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>I323664</t>
+          <t>I301063</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Shen Dan</t>
+          <t xml:space="preserve">Hans Xu </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>I306327</t>
+          <t>I343025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shi Sheng</t>
+          <t>Ray Cai</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>I308587</t>
+          <t>I070635</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Song Sanli</t>
+          <t>Zhou Keguo</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>I048592</t>
+          <t>I044731</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wang Yongqiang</t>
+          <t>Kenneth Zhang</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>I311397</t>
+          <t>I310942</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wang Jingsong</t>
+          <t>Chen Jun</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>I371247</t>
+          <t>I065492</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>Xiang Dan</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>I067797</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Xiong Liangqi</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>I518885</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Yao Jing</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>I345653</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Yu Shuhao</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>I515143</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Yu Yongxin</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>I343476</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Zhan Jiyuan</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>I306729</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Zhu Anqi</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I523215 </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Zhu Lingkang</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>I064580</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ding Hongzhuang </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>I041481</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Rambo Chen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>I346894</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Jerry Tan</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>I301063</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hans Xu </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>I343025</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Ray Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>I070635</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Zhou Keguo</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>I044731</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Kenneth Zhang</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>I056391</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Liang Zhenyu</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>I068435</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Frank Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>I031684</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Sun Xufei</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>I067490</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Zhang Jingong</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>I521633</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Xu Owen</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I523215 </t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Zhu Samuel</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>I347939</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Wang Rookie</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>I076056</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Fan Diane</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>I343851</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Qian Lipeng</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>I323182</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Huang Kiros</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>I311414</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Yang Huan</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>I026791</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Liang Bing</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>I062141</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Shen Jie</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>I076779</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Zhong Claude</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>I310942</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Chen Jun</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>I065492</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
         <is>
           <t>Cindy Yao</t>
         </is>
